--- a/data/담당자별_판매량_Andy사원.xlsx
+++ b/data/담당자별_판매량_Andy사원.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\myPyCode\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B990E2-0C1E-4D81-A13F-D0A95EABE97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="32085" yWindow="375" windowWidth="20835" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>제품명</t>
   </si>
@@ -44,9 +50,6 @@
   </si>
   <si>
     <t>핸드백</t>
-  </si>
-  <si>
-    <t>벨트</t>
   </si>
   <si>
     <t>A</t>
@@ -58,12 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -71,8 +74,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,17 +128,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,15 +461,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>198</v>
@@ -462,15 +484,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>273</v>
@@ -485,15 +507,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>385</v>
@@ -505,33 +527,11 @@
         <v>355</v>
       </c>
       <c r="G4">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>